--- a/US/data/CBS/NFIB/old/Relative Interest Rate Paid by Regular Borrowers.xlsx
+++ b/US/data/CBS/NFIB/old/Relative Interest Rate Paid by Regular Borrowers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D1CB4C-74D7-4FE8-850E-470B25B653D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="496">
   <si>
     <t>Month/Year</t>
   </si>
@@ -60,18 +61,18 @@
     <t>1986/6/1</t>
   </si>
   <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
     <t>-23</t>
   </si>
   <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>-22</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
     <t>1986/9/1</t>
   </si>
   <si>
@@ -117,18 +118,21 @@
     <t>1987/6/1</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
     <t>1987/9/1</t>
   </si>
   <si>
@@ -291,180 +295,180 @@
     <t>1990/6/1</t>
   </si>
   <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>-15</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
     <t>1994/4/1</t>
   </si>
   <si>
@@ -474,57 +478,54 @@
     <t>1994/6/1</t>
   </si>
   <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
     <t>1995/6/1</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>1995/7/1</t>
   </si>
   <si>
@@ -600,297 +601,300 @@
     <t>1997/6/1</t>
   </si>
   <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
     <t>2004/11/1</t>
   </si>
   <si>
@@ -1501,12 +1505,15 @@
   </si>
   <si>
     <t>2021/10/1</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1655,6 +1662,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1690,6 +1714,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1865,8 +1906,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1939,15 +1980,15 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1955,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1963,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,28 +2084,28 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -2072,55 +2113,55 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -2128,7 +2169,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -2136,111 +2177,111 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -2248,74 +2289,74 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
         <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
         <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,7 +2364,7 @@
         <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2331,7 +2372,7 @@
         <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2355,7 +2396,7 @@
         <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2363,7 +2404,7 @@
         <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2371,7 +2412,7 @@
         <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,12 +2452,12 @@
         <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -2424,15 +2465,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
         <v>108</v>
-      </c>
-      <c r="B69" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2440,15 +2481,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
         <v>111</v>
-      </c>
-      <c r="B71" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2456,7 +2497,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2464,15 +2505,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2480,18 +2521,18 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
         <v>117</v>
-      </c>
-      <c r="B76" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
         <v>119</v>
-      </c>
-      <c r="B77" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2507,7 +2548,7 @@
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2515,7 +2556,7 @@
         <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2531,7 +2572,7 @@
         <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2547,7 +2588,7 @@
         <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2571,7 +2612,7 @@
         <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2595,7 +2636,7 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2603,7 +2644,7 @@
         <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2627,7 +2668,7 @@
         <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2635,7 +2676,7 @@
         <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2659,7 +2700,7 @@
         <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2667,7 +2708,7 @@
         <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2675,31 +2716,31 @@
         <v>147</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2707,7 +2748,7 @@
         <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2715,7 +2756,7 @@
         <v>153</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2723,7 +2764,7 @@
         <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2731,7 +2772,7 @@
         <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2739,7 +2780,7 @@
         <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2779,7 +2820,7 @@
         <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2787,15 +2828,15 @@
         <v>165</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2803,7 +2844,7 @@
         <v>168</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,7 +2852,7 @@
         <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2860,7 @@
         <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2827,7 +2868,7 @@
         <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2835,7 +2876,7 @@
         <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2843,7 +2884,7 @@
         <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2916,7 @@
         <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,7 +2924,7 @@
         <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2891,7 +2932,7 @@
         <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2940,7 @@
         <v>180</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2948,7 @@
         <v>181</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,7 +2956,7 @@
         <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2923,7 +2964,7 @@
         <v>183</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2931,7 +2972,7 @@
         <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2939,7 +2980,7 @@
         <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2988,7 @@
         <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,7 +2996,7 @@
         <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2963,7 +3004,7 @@
         <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2979,7 +3020,7 @@
         <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2987,132 +3028,132 @@
         <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B153" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>207</v>
+      </c>
+      <c r="B154" t="s">
         <v>208</v>
-      </c>
-      <c r="B154" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B155" t="s">
         <v>134</v>
@@ -3120,7 +3161,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -3128,7 +3169,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B157" t="s">
         <v>22</v>
@@ -3136,7 +3177,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B158" t="s">
         <v>100</v>
@@ -3144,7 +3185,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B159" t="s">
         <v>134</v>
@@ -3152,39 +3193,39 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B164" t="s">
         <v>94</v>
@@ -3192,7 +3233,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B165" t="s">
         <v>30</v>
@@ -3200,7 +3241,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B166" t="s">
         <v>30</v>
@@ -3208,31 +3249,31 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>223</v>
+      </c>
+      <c r="B169" t="s">
         <v>224</v>
-      </c>
-      <c r="B169" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B170" t="s">
         <v>34</v>
@@ -3240,42 +3281,42 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B171" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" t="s">
         <v>228</v>
-      </c>
-      <c r="B172" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>229</v>
+      </c>
+      <c r="B173" t="s">
         <v>230</v>
-      </c>
-      <c r="B173" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>232</v>
+      </c>
+      <c r="B175" t="s">
         <v>233</v>
-      </c>
-      <c r="B175" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3332,7 @@
         <v>236</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3299,7 +3340,7 @@
         <v>237</v>
       </c>
       <c r="B178" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3348,7 @@
         <v>238</v>
       </c>
       <c r="B179" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3331,7 +3372,7 @@
         <v>241</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3347,7 +3388,7 @@
         <v>243</v>
       </c>
       <c r="B184" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3355,7 +3396,7 @@
         <v>244</v>
       </c>
       <c r="B185" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3371,7 +3412,7 @@
         <v>246</v>
       </c>
       <c r="B187" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3379,7 +3420,7 @@
         <v>247</v>
       </c>
       <c r="B188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3395,7 +3436,7 @@
         <v>249</v>
       </c>
       <c r="B190" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3403,7 +3444,7 @@
         <v>250</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3435,7 +3476,7 @@
         <v>256</v>
       </c>
       <c r="B195" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3459,7 +3500,7 @@
         <v>259</v>
       </c>
       <c r="B198" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3467,7 +3508,7 @@
         <v>260</v>
       </c>
       <c r="B199" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3507,7 +3548,7 @@
         <v>265</v>
       </c>
       <c r="B204" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3531,7 +3572,7 @@
         <v>268</v>
       </c>
       <c r="B207" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3563,7 +3604,7 @@
         <v>272</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3603,7 +3644,7 @@
         <v>277</v>
       </c>
       <c r="B216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3611,7 +3652,7 @@
         <v>278</v>
       </c>
       <c r="B217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3619,7 +3660,7 @@
         <v>279</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3627,7 +3668,7 @@
         <v>280</v>
       </c>
       <c r="B219" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3635,7 +3676,7 @@
         <v>281</v>
       </c>
       <c r="B220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3643,7 +3684,7 @@
         <v>282</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3651,7 +3692,7 @@
         <v>283</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3659,7 +3700,7 @@
         <v>284</v>
       </c>
       <c r="B223" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3691,12 +3732,12 @@
         <v>289</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B228" t="s">
         <v>34</v>
@@ -3704,95 +3745,95 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B229" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B230" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B231" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B232" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B234" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B235" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B236" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B237" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B238" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B239" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B240" t="s">
         <v>235</v>
@@ -3800,15 +3841,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B241" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B242" t="s">
         <v>235</v>
@@ -3816,7 +3857,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B243" t="s">
         <v>158</v>
@@ -3824,15 +3865,15 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B244" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B245" t="s">
         <v>160</v>
@@ -3840,71 +3881,71 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B246" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B247" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B248" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B249" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B250" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B251" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B252" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B253" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B254" t="s">
         <v>190</v>
@@ -3912,15 +3953,15 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B256" t="s">
         <v>190</v>
@@ -3928,23 +3969,23 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B257" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B258" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B259" t="s">
         <v>32</v>
@@ -3952,71 +3993,71 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B260" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B262" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B263" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B264" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B266" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B267" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B268" t="s">
         <v>134</v>
@@ -4024,7 +4065,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B269" t="s">
         <v>22</v>
@@ -4032,23 +4073,23 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B270" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B271" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B272" t="s">
         <v>28</v>
@@ -4056,31 +4097,31 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B273" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B274" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B275" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B276" t="s">
         <v>130</v>
@@ -4088,7 +4129,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B277" t="s">
         <v>130</v>
@@ -4096,7 +4137,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B278" t="s">
         <v>3</v>
@@ -4104,79 +4145,79 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B279" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B280" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B281" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B282" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B283" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B284" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B285" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B286" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B287" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B288" t="s">
         <v>94</v>
@@ -4184,591 +4225,591 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B289" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B290" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B291" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B292" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B293" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B294" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B295" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B296" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B297" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B298" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B299" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B300" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B301" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B302" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B303" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B304" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B305" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B306" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B307" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B308" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B309" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B310" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B311" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B312" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B313" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B314" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B315" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B316" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B317" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B318" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B319" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B320" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B321" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B322" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B323" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B324" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B325" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B326" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B327" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B328" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B329" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B330" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B331" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B332" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B333" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B334" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B335" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B336" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B337" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B338" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B339" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B340" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B341" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B342" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B343" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B344" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B345" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B347" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B348" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B349" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B350" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B351" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B352" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B353" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B354" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B355" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B356" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B357" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B358" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B359" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B360" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B361" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B362" t="s">
         <v>94</v>
@@ -4776,7 +4817,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B363" t="s">
         <v>94</v>
@@ -4784,95 +4825,95 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B364" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B365" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B366" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B367" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B368" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B369" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B370" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B371" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B372" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B373" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B374" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B375" t="s">
         <v>30</v>
@@ -4880,7 +4921,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B376" t="s">
         <v>288</v>
@@ -4888,7 +4929,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B377" t="s">
         <v>30</v>
@@ -4896,7 +4937,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B378" t="s">
         <v>288</v>
@@ -4904,15 +4945,15 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B379" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B380" t="s">
         <v>288</v>
@@ -4920,23 +4961,23 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B381" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B382" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B383" t="s">
         <v>94</v>
@@ -4944,7 +4985,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B384" t="s">
         <v>288</v>
@@ -4952,31 +4993,31 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B385" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B386" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B387" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B388" t="s">
         <v>34</v>
@@ -4984,7 +5025,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B389" t="s">
         <v>34</v>
@@ -4992,23 +5033,23 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B390" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B391" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B392" t="s">
         <v>34</v>
@@ -5016,7 +5057,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B393" t="s">
         <v>34</v>
@@ -5024,15 +5065,15 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B394" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B395" t="s">
         <v>190</v>
@@ -5040,55 +5081,55 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B396" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B397" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B398" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B399" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B400" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B401" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B402" t="s">
         <v>30</v>
@@ -5096,55 +5137,55 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B403" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B404" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B405" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B406" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B407" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B408" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B409" t="s">
         <v>28</v>
@@ -5152,23 +5193,23 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B410" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B411" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B412" t="s">
         <v>28</v>
@@ -5176,7 +5217,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -5184,7 +5225,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B414" t="s">
         <v>102</v>
@@ -5192,15 +5233,15 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B415" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B416" t="s">
         <v>100</v>
@@ -5208,7 +5249,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B417" t="s">
         <v>130</v>
@@ -5216,7 +5257,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -5224,7 +5265,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B419" t="s">
         <v>130</v>
@@ -5232,15 +5273,15 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B420" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B421" t="s">
         <v>28</v>
@@ -5248,79 +5289,88 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B422" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B423" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B424" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B425" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B426" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B427" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B428" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B429" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B430" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>495</v>
+      </c>
+      <c r="B431" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>